--- a/SuperButton/New Microsoft Excel Worksheet.xlsx
+++ b/SuperButton/New Microsoft Excel Worksheet.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFE43EC-9604-4824-AD57-0C934AB89531}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +19,214 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+  <si>
+    <r>
+      <t xml:space="preserve">מצ"ב קובץ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.ERRORS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> שיש להכניס כ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 100 </t>
+    </r>
+  </si>
+  <si>
+    <t>parameter PID kick out [A]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- GUI sends on enable refresh ID 62.0- cancel it </t>
+  </si>
+  <si>
+    <t>- PID tab- kick out current Kc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- ID 63.10 check that its Int on GUI </t>
+  </si>
+  <si>
+    <t>- ID 63.0\1- dont send "get" (maintenance)</t>
+  </si>
+  <si>
+    <t>- ID index mode 71           7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gets enum (not float) </t>
+  </si>
+  <si>
+    <t>- refresh very slow</t>
+  </si>
+  <si>
+    <t>- PID kick out Kc</t>
+  </si>
+  <si>
+    <t>- change ON\OFF button</t>
+  </si>
+  <si>
+    <t>- some values doesn’t show anything when they not declered</t>
+  </si>
+  <si>
+    <t>- RESET button in maintenance</t>
+  </si>
+  <si>
+    <t>- in control tab- returning to forse-rotate</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>1,5 h</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>in maintenance- inser reset (ID 63,9)</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>make tab color more intense when it opened</t>
+  </si>
+  <si>
+    <t>3 days</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>open parameters window on main screen (same monitor as main window)</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>delet arrow of combobox in main screen- motion status</t>
+  </si>
+  <si>
+    <t>when click on float number it doesn’t select all the number</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>add unit measure on graph (right side)</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>משימות</t>
+  </si>
+  <si>
+    <t>דיווחים</t>
+  </si>
+  <si>
+    <t>הפעלה</t>
+  </si>
+  <si>
+    <t>תצוגה</t>
+  </si>
+  <si>
+    <t>יחידות plot</t>
+  </si>
+  <si>
+    <t>send 2 times the set in combobox</t>
+  </si>
+  <si>
+    <t>mtion command - signal generator no send operation</t>
+  </si>
+  <si>
+    <t>50[3] 50 [4] start 0</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>current [A] motion command, feedbak not correct</t>
+  </si>
+  <si>
+    <t>VDC Motor get data of PowerSupply - yoav</t>
+  </si>
+  <si>
+    <t>graph default x scale need to start at 0 - 1000</t>
+  </si>
+  <si>
+    <t>detect no connection  (1[0]=? -&gt; motor status) ping</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +249,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +275,16 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5EFBA80D-C11D-4763-8E43-695066B7B8B3}" name="Table1" displayName="Table1" ref="D1:D32" totalsRowShown="0">
+  <autoFilter ref="D1:D32" xr:uid="{AA13EE38-BD99-4475-8F16-8CCAE6B01888}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{6A2795DD-FBE8-49F8-AC1D-37FBD3EE16B7}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +549,393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="6" max="6" width="40.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>11.03</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>11.03</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>7.03</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>13.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>11.03</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>14.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>14.03</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>13.03</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/SuperButton/New Microsoft Excel Worksheet.xlsx
+++ b/SuperButton/New Microsoft Excel Worksheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFE43EC-9604-4824-AD57-0C934AB89531}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A46150-9AF1-4172-B6C3-F2933B166F34}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <r>
       <t xml:space="preserve">מצ"ב קובץ </t>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>detect no connection  (1[0]=? -&gt; motor status) ping</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -553,14 +556,14 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="84.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -649,6 +652,9 @@
       <c r="E5">
         <v>13.03</v>
       </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -717,6 +723,9 @@
       <c r="E9">
         <v>14.03</v>
       </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -773,6 +782,9 @@
       </c>
       <c r="E12">
         <v>17.03</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -786,6 +798,9 @@
         <v>35</v>
       </c>
       <c r="C14" s="2"/>
+      <c r="D14">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -813,6 +828,9 @@
         <v>39</v>
       </c>
       <c r="C17" s="2"/>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -820,6 +838,9 @@
         <v>40</v>
       </c>
       <c r="C18" s="2"/>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
@@ -828,7 +849,7 @@
       </c>
       <c r="C19" s="2"/>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">

--- a/SuperButton/New Microsoft Excel Worksheet.xlsx
+++ b/SuperButton/New Microsoft Excel Worksheet.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A46150-9AF1-4172-B6C3-F2933B166F34}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8846D70D-BA45-4898-B4EB-1EAB20F01294}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="94">
   <si>
     <r>
       <t xml:space="preserve">מצ"ב קובץ </t>
@@ -212,12 +213,162 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>משימות GUI</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">משימה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">תאור </t>
+  </si>
+  <si>
+    <t>יוסף</t>
+  </si>
+  <si>
+    <t>אליה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יחזקל </t>
+  </si>
+  <si>
+    <t>יואב</t>
+  </si>
+  <si>
+    <t>עדיפות</t>
+  </si>
+  <si>
+    <t>תאריך יעד</t>
+  </si>
+  <si>
+    <t>ריפרוש</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שניה לכלל הפרטים המוצגים </t>
+  </si>
+  <si>
+    <t xml:space="preserve">דיבוג כיולים </t>
+  </si>
+  <si>
+    <t>כולל פקודות קינפוג מנוע</t>
+  </si>
+  <si>
+    <t>בוצע</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לבדיקה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">גרפים </t>
+  </si>
+  <si>
+    <t>אין התאמה של היחידות למציאות</t>
+  </si>
+  <si>
+    <t>השבוע</t>
+  </si>
+  <si>
+    <t>טעינת ושמירת פרמטרים</t>
+  </si>
+  <si>
+    <t>אל ומתוך קובץ</t>
+  </si>
+  <si>
+    <t>התקנה</t>
+  </si>
+  <si>
+    <t>קובץ התקנה והוראות בסיסיות</t>
+  </si>
+  <si>
+    <t>השלמת פקודות</t>
+  </si>
+  <si>
+    <t>ריזולבר וכו</t>
+  </si>
+  <si>
+    <t>הודעות שגיאה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הודעות 100 ID </t>
+  </si>
+  <si>
+    <t>שגיאות מנוע</t>
+  </si>
+  <si>
+    <t>שיוף אחרון ובדיקות</t>
+  </si>
+  <si>
+    <t>הגדלת משתנים</t>
+  </si>
+  <si>
+    <t>PLOT 32bit</t>
+  </si>
+  <si>
+    <t>טורקיה</t>
+  </si>
+  <si>
+    <t>Gain Ch1 &amp; Ch2</t>
+  </si>
+  <si>
+    <t>Error Log in RED</t>
+  </si>
+  <si>
+    <t>Auto Disconnect Task</t>
+  </si>
+  <si>
+    <t>Refresh Ch1&amp;Ch2 Selected Channel</t>
+  </si>
+  <si>
+    <t>Driver status (From bottom panel to LeftPanel)</t>
+  </si>
+  <si>
+    <t>Bottom panel improve design</t>
+  </si>
+  <si>
+    <t>Improve graph flow</t>
+  </si>
+  <si>
+    <t>load firmware</t>
+  </si>
+  <si>
+    <t>add operation in maintenance tab - protected params</t>
+  </si>
+  <si>
+    <t>63[10] int 1 get/set</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>שלומי</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,16 +382,77 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -248,11 +460,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF8EA9DB"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF8EA9DB"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF8EA9DB"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF8EA9DB"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -263,8 +545,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -553,17 +914,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="84.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -951,6 +1314,292 @@
       <c r="C31" s="2" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="13">
+        <v>3</v>
+      </c>
+      <c r="D38" s="13">
+        <v>3</v>
+      </c>
+      <c r="E38" s="13">
+        <v>1</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="13">
+        <v>9</v>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="15"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="16">
+        <v>1</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="16">
+        <v>1</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="16">
+        <v>10</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="13">
+        <v>3</v>
+      </c>
+      <c r="D40" s="13">
+        <v>0</v>
+      </c>
+      <c r="E40" s="13">
+        <v>1</v>
+      </c>
+      <c r="F40" s="13">
+        <v>1</v>
+      </c>
+      <c r="G40" s="13">
+        <v>9</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="22">
+        <v>2</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="22">
+        <v>1</v>
+      </c>
+      <c r="F41" s="22">
+        <v>1</v>
+      </c>
+      <c r="G41" s="22">
+        <v>8</v>
+      </c>
+      <c r="H41" s="23"/>
+      <c r="I41" s="24"/>
+      <c r="J41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="13">
+        <v>1</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="13">
+        <v>2</v>
+      </c>
+      <c r="F42" s="14"/>
+      <c r="G42" s="13">
+        <v>5</v>
+      </c>
+      <c r="H42" s="14"/>
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="16">
+        <v>2</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="16">
+        <v>1</v>
+      </c>
+      <c r="F43" s="16">
+        <v>1</v>
+      </c>
+      <c r="G43" s="16">
+        <v>0</v>
+      </c>
+      <c r="H43" s="17"/>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="13">
+        <v>1</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="13">
+        <v>1</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="13">
+        <v>8</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="16">
+        <v>1</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="16">
+        <v>1</v>
+      </c>
+      <c r="F45" s="17"/>
+      <c r="G45" s="16">
+        <v>8</v>
+      </c>
+      <c r="H45" s="17"/>
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="13">
+        <v>5</v>
+      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="13">
+        <v>5</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="13">
+        <v>5</v>
+      </c>
+      <c r="H46" s="14"/>
+      <c r="I46" s="15"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="16">
+        <v>7</v>
+      </c>
+      <c r="H47" s="17"/>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -959,4 +1608,232 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6DC6D2-EEA8-404D-A697-FFE68C9873A0}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="30">
+        <v>1</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30">
+        <v>10</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="31">
+        <v>2</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="31">
+        <v>1</v>
+      </c>
+      <c r="F3" s="31">
+        <v>1</v>
+      </c>
+      <c r="G3" s="31">
+        <v>9</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34">
+        <v>1</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="34">
+        <v>1</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>